--- a/DbSpecifications.xlsx
+++ b/DbSpecifications.xlsx
@@ -9,21 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13770" windowHeight="7365" tabRatio="764" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13770" windowHeight="7365" tabRatio="764"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
     <sheet name="Mst" sheetId="6" r:id="rId2"/>
-    <sheet name="帳簿" sheetId="7" r:id="rId3"/>
-    <sheet name="カテゴリ" sheetId="8" r:id="rId4"/>
-    <sheet name="項目" sheetId="9" r:id="rId5"/>
+    <sheet name="帳簿(book)" sheetId="7" r:id="rId3"/>
+    <sheet name="分類(category)" sheetId="8" r:id="rId4"/>
+    <sheet name="項目(item)" sheetId="9" r:id="rId5"/>
     <sheet name="Hst" sheetId="5" r:id="rId6"/>
-    <sheet name="帳簿項目" sheetId="2" r:id="rId7"/>
-    <sheet name="グループ" sheetId="3" r:id="rId8"/>
-    <sheet name="店舗" sheetId="11" r:id="rId9"/>
-    <sheet name="備考" sheetId="4" r:id="rId10"/>
+    <sheet name="帳簿項目(action)" sheetId="2" r:id="rId7"/>
+    <sheet name="グループ(group)" sheetId="3" r:id="rId8"/>
+    <sheet name="店舗(shop)" sheetId="11" r:id="rId9"/>
+    <sheet name="備考(remark)" sheetId="4" r:id="rId10"/>
     <sheet name="Rel" sheetId="12" r:id="rId11"/>
-    <sheet name="帳簿-項目" sheetId="13" r:id="rId12"/>
+    <sheet name="帳簿-項目(book_item)" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="210">
   <si>
     <t>テーブル論理名</t>
     <rPh sb="4" eb="7">
@@ -386,18 +386,6 @@
   </si>
   <si>
     <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0：財布
-1：口座
-2：カード</t>
-    <rPh sb="2" eb="4">
-      <t>サイフ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウザ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -419,17 +407,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NULLまたは1-31
-将来用</t>
-    <rPh sb="12" eb="14">
-      <t>ショウライ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>category_name</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1088,6 +1065,80 @@
   </si>
   <si>
     <t>shop_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支払元帳簿ID</t>
+    <rPh sb="0" eb="2">
+      <t>シハライ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チョウボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>debit_book_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NULLまたは1-31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>is_match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一致フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0：未照合
+1：照合済</t>
+    <rPh sb="2" eb="5">
+      <t>ミショウゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ズミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0：未分類
+1：財布
+2：銀行口座
+3：クレジットカード
+4：株式</t>
+    <rPh sb="2" eb="5">
+      <t>ミブンルイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイフ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ギンコウコウザ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カブシキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1468,7 +1519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1513,13 +1564,13 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" t="s">
         <v>191</v>
-      </c>
-      <c r="C5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
@@ -1623,24 +1674,24 @@
         <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
@@ -1648,35 +1699,35 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
         <v>57</v>
@@ -1690,21 +1741,21 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
         <v>57</v>
@@ -1718,7 +1769,7 @@
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
@@ -1726,10 +1777,10 @@
         <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -1813,24 +1864,24 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
         <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
         <v>52</v>
@@ -1839,7 +1890,7 @@
         <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="27" x14ac:dyDescent="0.15">
@@ -1847,27 +1898,27 @@
         <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
@@ -1875,7 +1926,7 @@
         <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
         <v>51</v>
@@ -1886,10 +1937,10 @@
         <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
@@ -1897,10 +1948,10 @@
         <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1933,16 +1984,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I13"/>
+  <dimension ref="B2:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
@@ -1971,7 +2022,7 @@
         <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
@@ -1988,7 +2039,7 @@
         <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
@@ -2002,7 +2053,7 @@
         <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
@@ -2016,10 +2067,10 @@
         <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>42</v>
       </c>
@@ -2030,10 +2081,10 @@
         <v>52</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>43</v>
       </c>
@@ -2047,90 +2098,106 @@
         <v>60</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>54</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
+      <c r="I10" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
         <v>49</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>36</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2176,56 +2243,56 @@
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
         <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
@@ -2233,16 +2300,16 @@
         <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="27" x14ac:dyDescent="0.15">
@@ -2250,28 +2317,28 @@
         <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
         <v>52</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
@@ -2279,7 +2346,7 @@
         <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
@@ -2290,10 +2357,10 @@
         <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -2351,80 +2418,80 @@
         <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" t="s">
         <v>187</v>
       </c>
-      <c r="C7" t="s">
+      <c r="G7" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="D7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
@@ -2435,13 +2502,13 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="27" x14ac:dyDescent="0.15">
@@ -2452,24 +2519,24 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -2477,10 +2544,10 @@
         <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
@@ -2488,10 +2555,10 @@
         <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
@@ -2499,7 +2566,7 @@
         <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
         <v>51</v>
@@ -2534,10 +2601,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I15"/>
+  <dimension ref="B2:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2547,7 +2614,7 @@
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
@@ -2570,24 +2637,24 @@
         <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
@@ -2595,164 +2662,178 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
         <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
         <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F9" t="s">
-        <v>92</v>
-      </c>
-      <c r="I9" t="s">
-        <v>179</v>
+        <v>203</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
         <v>117</v>
       </c>
-      <c r="D10" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" t="s">
-        <v>129</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
         <v>49</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>36</v>
       </c>
-      <c r="D15" t="s">
-        <v>124</v>
+      <c r="D16" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2798,10 +2879,10 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
         <v>50</v>
@@ -2812,16 +2893,16 @@
     </row>
     <row r="4" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
         <v>52</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
@@ -2829,13 +2910,13 @@
         <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="27" x14ac:dyDescent="0.15">
@@ -2846,21 +2927,21 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
@@ -2871,7 +2952,7 @@
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.15">
@@ -2879,7 +2960,7 @@
         <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -2893,7 +2974,7 @@
         <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2943,41 +3024,41 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="27" x14ac:dyDescent="0.15">
@@ -2991,18 +3072,18 @@
         <v>52</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
@@ -3010,7 +3091,7 @@
         <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
         <v>51</v>
@@ -3021,7 +3102,7 @@
         <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>

--- a/DbSpecifications.xlsx
+++ b/DbSpecifications.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13770" windowHeight="7365" tabRatio="764"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13770" windowHeight="7365" tabRatio="764" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="218">
   <si>
     <t>テーブル論理名</t>
     <rPh sb="4" eb="7">
@@ -1138,6 +1138,47 @@
     </rPh>
     <rPh sb="31" eb="33">
       <t>カブシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>csv_act_time_index</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>csv_outgo_index</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>csv_item_name_index</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSV日付インデックス</t>
+    <rPh sb="3" eb="5">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSV支出インデックス</t>
+    <rPh sb="3" eb="5">
+      <t>シシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSV項目名インデックス</t>
+    <rPh sb="3" eb="6">
+      <t>コウモクメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1519,7 +1560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1984,17 +2025,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I14"/>
+  <dimension ref="B2:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
@@ -2118,79 +2159,124 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>210</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+        <v>213</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>44</v>
+        <v>216</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>211</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" t="s">
-        <v>160</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>47</v>
+        <v>217</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>212</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
         <v>49</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C17" t="s">
         <v>36</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D17" t="s">
         <v>58</v>
       </c>
     </row>

--- a/DbSpecifications.xlsx
+++ b/DbSpecifications.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\C#\HouseholdAccountBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Program\C#\HouseholdAccountBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84B8695-ED53-4DB0-80A2-1697493C1E77}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13770" windowHeight="7365" tabRatio="764" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13770" windowHeight="7365" tabRatio="764" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
@@ -1186,8 +1187,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1198,6 +1199,15 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -1251,12 +1261,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1278,8 +1291,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1557,11 +1574,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F3" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1570,7 +1587,7 @@
     <col min="2" max="3" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1581,8 +1598,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
@@ -1591,9 +1608,12 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
@@ -1602,9 +1622,12 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="7" t="s">
         <v>189</v>
       </c>
       <c r="C5" t="s">
@@ -1614,8 +1637,8 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
@@ -1625,8 +1648,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
@@ -1636,8 +1659,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
@@ -1647,8 +1670,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
@@ -1658,8 +1681,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
@@ -1671,13 +1694,23 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B3" location="'帳簿項目(action)'!A1" display="hst_action" xr:uid="{35260307-4CFE-4148-8939-4CE2C176AA2C}"/>
+    <hyperlink ref="B4" location="'グループ(group)'!A1" display="hst_group" xr:uid="{D559A66E-8434-4DEE-96EF-E5720512E42D}"/>
+    <hyperlink ref="B5" location="'店舗(shop)'!A1" display="hst_shop" xr:uid="{53978AF1-D449-4324-9299-AC53B4B2C684}"/>
+    <hyperlink ref="B6" location="'備考(remark)'!A1" display="hst_remark" xr:uid="{988143D6-4199-40E6-BB2F-5146571BB2B3}"/>
+    <hyperlink ref="B7" location="'帳簿(book)'!A1" display="mst_book" xr:uid="{1681E9EB-039A-4AD5-B5A0-ECD10FC92965}"/>
+    <hyperlink ref="B8" location="'分類(category)'!A1" display="mst_category" xr:uid="{00A03B14-0BD0-4A66-A7CE-342F682E6DB0}"/>
+    <hyperlink ref="B9" location="'項目(item)'!A1" display="mst_item" xr:uid="{F48ABC00-5567-4F92-B80B-F0DBEC590B34}"/>
+    <hyperlink ref="B10" location="'帳簿-項目(book_item)'!A1" display="rel_book_item" xr:uid="{B2D3E8FF-B862-4FAA-94EB-40D2A324AE47}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B2:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1842,7 +1875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1863,7 +1896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2003,7 +2036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
@@ -2024,11 +2057,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2288,7 +2321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2468,7 +2501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2665,7 +2698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
@@ -2686,10 +2719,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -2929,7 +2962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3070,7 +3103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
